--- a/1st Year CSE, CSM, CS, DS, ECE Timetables.xlsx
+++ b/1st Year CSE, CSM, CS, DS, ECE Timetables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="CSE 1A" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="127">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -153,13 +153,16 @@
     <t xml:space="preserve">PPS (B1) &amp; EC (B2) LAB</t>
   </si>
   <si>
+    <t xml:space="preserve">LIB</t>
+  </si>
+  <si>
     <t xml:space="preserve">Thursday</t>
   </si>
   <si>
     <t xml:space="preserve">BEE (B1) &amp; PPS (B2) LAB</t>
   </si>
   <si>
-    <t xml:space="preserve">LIB</t>
+    <t xml:space="preserve">SEMINAR</t>
   </si>
   <si>
     <t xml:space="preserve">MENTORING</t>
@@ -204,7 +207,7 @@
     <t xml:space="preserve">Mentor</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. J. Srikantha</t>
+    <t xml:space="preserve">Ms. G. Keerthi</t>
   </si>
   <si>
     <t xml:space="preserve">PPS Lab</t>
@@ -304,9 +307,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mr. B. Srinivas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. G. Keerthi</t>
   </si>
   <si>
     <t xml:space="preserve">CSM-I (A)</t>
@@ -596,7 +596,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,8 +611,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF6D"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
@@ -698,7 +704,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -751,6 +757,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -759,7 +769,7 @@
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -789,6 +799,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -827,12 +841,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -903,6 +913,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,14 +963,14 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF6D"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -982,8 +996,8 @@
   </sheetPr>
   <dimension ref="B1:M231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="1" sqref="E30:J30 B33"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1146,21 +1160,21 @@
         <v>18</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="15" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="8"/>
@@ -1170,21 +1184,21 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="8"/>
@@ -1198,87 +1212,89 @@
         <v>18</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="13"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="14"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1326,19 +1342,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -1346,19 +1362,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -1366,19 +1382,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -1386,19 +1402,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -1406,19 +1422,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="21" t="s">
+      <c r="F23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -1426,19 +1442,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -1446,19 +1462,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -1466,19 +1482,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -1486,17 +1502,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="19"/>
+      <c r="E27" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -1504,19 +1520,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -1524,19 +1540,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -1544,15 +1560,15 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
@@ -1565,60 +1581,60 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26" t="s">
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="23" t="s">
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="28"/>
+      <c r="M32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1816,7 +1832,7 @@
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="41">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B5:M5"/>
@@ -1833,7 +1849,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="I13:J13"/>
@@ -1877,8 +1892,8 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="1" sqref="E30:J30 F16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1933,7 +1948,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1985,16 +2000,16 @@
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2036,29 +2051,29 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="J10" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="13"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2066,23 +2081,23 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="M11" s="8"/>
@@ -2092,99 +2107,99 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15" t="s">
+      <c r="F12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="15"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2232,19 +2247,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -2252,19 +2267,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -2272,19 +2287,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -2292,19 +2307,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -2312,19 +2327,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -2332,19 +2347,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -2352,19 +2367,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -2372,19 +2387,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -2392,19 +2407,19 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="19"/>
+      <c r="E27" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="21" t="s">
+      <c r="G27" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -2412,19 +2427,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -2432,19 +2447,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -2452,70 +2467,70 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2771,8 +2786,8 @@
   </sheetPr>
   <dimension ref="B1:M226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="E30:J30 D18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2828,7 +2843,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2844,7 +2859,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2874,7 +2889,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -2931,25 +2946,25 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2957,25 +2972,25 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="8"/>
@@ -2985,95 +3000,95 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="31" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="13"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="13" t="s">
+      <c r="J14" s="17"/>
+      <c r="K14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3121,19 +3136,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -3141,19 +3156,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -3161,19 +3176,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="F21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -3181,19 +3196,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -3201,19 +3216,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="21" t="s">
+      <c r="F23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -3221,19 +3236,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="G24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -3241,19 +3256,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -3261,96 +3276,96 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="E26" s="19" t="n">
+      <c r="E26" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D27" s="29"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="31"/>
+      <c r="E27" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="L27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="29"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="31"/>
+      <c r="E28" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="L28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="19" t="n">
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="F29" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="0"/>
-      <c r="M29" s="36"/>
+      <c r="M29" s="37"/>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D30" s="29"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="31"/>
+      <c r="E30" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="L30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3603,8 +3618,8 @@
   </sheetPr>
   <dimension ref="B1:M225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="E30:J30 D17"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3661,7 +3676,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3677,7 +3692,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3707,14 +3722,14 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -3764,25 +3779,25 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3790,27 +3805,27 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="13" t="s">
+      <c r="F11" s="14"/>
+      <c r="G11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="37" t="s">
+      <c r="K11" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="M11" s="8"/>
@@ -3820,93 +3835,95 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="13"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="13" t="s">
+      <c r="K13" s="17"/>
+      <c r="L13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
+      <c r="E14" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13" t="s">
+      <c r="K14" s="14"/>
+      <c r="L14" s="14" t="s">
         <v>18</v>
       </c>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3940,19 +3957,19 @@
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="17" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="G18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="8"/>
       <c r="L18" s="0"/>
       <c r="M18" s="8"/>
@@ -3960,19 +3977,19 @@
     <row r="19" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19" t="n">
+      <c r="D19" s="19"/>
+      <c r="E19" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="G19" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -3980,19 +3997,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F20" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="F20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -4000,19 +4017,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="G21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -4020,19 +4037,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="F22" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -4040,19 +4057,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -4060,19 +4077,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="40"/>
+      <c r="G24" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="41"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -4080,92 +4097,92 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="E25" s="19" t="n">
+      <c r="E25" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="40"/>
+      <c r="G25" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="19" t="n">
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="23"/>
+      <c r="F26" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="25"/>
       <c r="L26" s="0"/>
-      <c r="M26" s="28"/>
+      <c r="M26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D27" s="29"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="31"/>
+      <c r="E27" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="L27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="29"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="31"/>
+      <c r="E28" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="F28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="L28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D29" s="29"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="31"/>
+      <c r="E29" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="L29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
       <c r="L30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4364,7 +4381,7 @@
     <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="32">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B5:M5"/>
@@ -4379,7 +4396,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="J13:K13"/>
@@ -4416,8 +4432,8 @@
   </sheetPr>
   <dimension ref="B1:M232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="E30:J30 D18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4473,7 +4489,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4489,7 +4505,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4519,7 +4535,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -4576,29 +4592,29 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="13" t="s">
+      <c r="K10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="14" t="s">
         <v>28</v>
       </c>
       <c r="M10" s="8"/>
@@ -4608,23 +4624,25 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4632,91 +4650,93 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="13"/>
+      <c r="D12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="14"/>
       <c r="F12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
-        <v>23</v>
       </c>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4764,19 +4784,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -4784,19 +4804,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -4804,19 +4824,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="F21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -4824,19 +4844,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -4844,19 +4864,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -4864,19 +4884,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -4884,19 +4904,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -4904,19 +4924,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -4924,17 +4944,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="19"/>
+      <c r="E27" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -4942,19 +4962,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -4962,19 +4982,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="F29" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -4982,15 +5002,15 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
@@ -4998,15 +5018,15 @@
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19" t="n">
+      <c r="D31" s="19"/>
+      <c r="E31" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="8"/>
       <c r="L31" s="0"/>
       <c r="M31" s="8"/>
@@ -5019,64 +5039,64 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="41"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="23"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="23" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M35" s="28"/>
+      <c r="M35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5274,7 +5294,7 @@
     <row r="231" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="232" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="39">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B5:M5"/>
@@ -5284,11 +5304,9 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -5334,8 +5352,8 @@
   </sheetPr>
   <dimension ref="B1:M232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="E30:J30 D18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5392,7 +5410,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5408,7 +5426,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5438,7 +5456,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -5495,29 +5513,29 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" s="13"/>
+      <c r="K10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="14"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5525,22 +5543,22 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="44" t="s">
-        <v>32</v>
+      <c r="K11" s="14"/>
+      <c r="L11" s="45" t="s">
+        <v>30</v>
       </c>
       <c r="M11" s="8"/>
     </row>
@@ -5549,91 +5567,91 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="13" t="s">
+      <c r="D12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="45"/>
+      <c r="G12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13" t="s">
+      <c r="H12" s="15"/>
+      <c r="I12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="13"/>
+      <c r="K12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="14"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="44" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="45"/>
+      <c r="F14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="13"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5681,19 +5699,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -5701,19 +5719,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -5721,19 +5739,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="F21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -5741,19 +5759,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -5761,19 +5779,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -5781,19 +5799,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -5801,19 +5819,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -5821,19 +5839,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -5841,17 +5859,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="19"/>
+      <c r="E27" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -5859,19 +5877,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -5879,19 +5897,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -5899,13 +5917,13 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
@@ -5913,13 +5931,13 @@
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="8"/>
       <c r="L31" s="0"/>
       <c r="M31" s="8"/>
@@ -5932,64 +5950,64 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="41"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="23"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26" t="s">
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="23" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M35" s="28"/>
+      <c r="M35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6248,8 +6266,8 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="E30:J30 D18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6305,7 +6323,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -6357,16 +6375,16 @@
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6408,27 +6426,27 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="8"/>
@@ -6438,25 +6456,27 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="M11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6464,95 +6484,95 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="46" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="13" t="s">
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="F13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
         <v>86</v>
       </c>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="13" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="14" t="s">
         <v>86</v>
       </c>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6600,19 +6620,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -6620,19 +6640,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -6640,19 +6660,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -6660,19 +6680,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -6680,19 +6700,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -6700,19 +6720,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -6720,19 +6740,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -6740,19 +6760,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -6760,19 +6780,19 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="19"/>
+      <c r="E27" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -6780,17 +6800,17 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="F28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -6798,19 +6818,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -6818,72 +6838,72 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7081,7 +7101,7 @@
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="39">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B5:M5"/>
@@ -7095,7 +7115,6 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="K11:L11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="I12:K12"/>
@@ -7140,8 +7159,8 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="E30:J30 D18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7196,7 +7215,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -7248,16 +7267,16 @@
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="E8" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7299,29 +7318,29 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7329,27 +7348,27 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="48" t="s">
+      <c r="H11" s="15"/>
+      <c r="I11" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="49"/>
+      <c r="L11" s="14" t="s">
         <v>86</v>
       </c>
       <c r="M11" s="8"/>
@@ -7359,99 +7378,99 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13" t="s">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="49" t="s">
+      <c r="J12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="14"/>
+      <c r="L12" s="50" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="K13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13" t="s">
+      <c r="F14" s="14"/>
+      <c r="G14" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="13" t="s">
+      <c r="K14" s="17"/>
+      <c r="L14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7499,19 +7518,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -7519,19 +7538,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -7539,19 +7558,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -7559,19 +7578,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -7579,19 +7598,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -7599,19 +7618,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -7619,19 +7638,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -7639,19 +7658,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -7659,19 +7678,19 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="19"/>
+      <c r="E27" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -7679,17 +7698,17 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="F28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -7697,19 +7716,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -7717,72 +7736,72 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8036,8 +8055,8 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="1" sqref="E30:J30 D18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8092,7 +8111,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -8144,16 +8163,16 @@
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8195,29 +8214,31 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="14" t="s">
+      <c r="G10" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13" t="s">
+      <c r="J10" s="14"/>
+      <c r="K10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="13"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8225,25 +8246,25 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="14"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8251,93 +8272,93 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="13" t="s">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="K12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="14"/>
+      <c r="F13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
+      <c r="J13" s="14"/>
+      <c r="K13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8385,19 +8406,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -8405,19 +8426,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -8425,19 +8446,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -8445,19 +8466,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -8465,19 +8486,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -8485,19 +8506,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -8505,19 +8526,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -8525,19 +8546,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -8545,17 +8566,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="19"/>
+      <c r="E27" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -8563,19 +8584,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -8583,19 +8604,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="F29" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -8603,68 +8624,68 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8862,7 +8883,7 @@
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="39">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B5:M5"/>
@@ -8872,7 +8893,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="H10:H15"/>
     <mergeCell ref="I10:J10"/>
-    <mergeCell ref="K10:L10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="I11:J11"/>
@@ -8921,8 +8941,8 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30:J30"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8979,7 +8999,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -9031,16 +9051,16 @@
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9082,23 +9102,23 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13" t="s">
+      <c r="K10" s="14"/>
+      <c r="L10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="8"/>
@@ -9108,27 +9128,27 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="13" t="s">
+      <c r="G11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13" t="s">
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="8"/>
@@ -9138,97 +9158,97 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="48" t="s">
+      <c r="F12" s="49"/>
+      <c r="G12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="K12" s="13" t="s">
+      <c r="J12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>23</v>
+      <c r="L12" s="16" t="s">
+        <v>30</v>
       </c>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H13" s="14"/>
-      <c r="I13" s="13" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="13" t="s">
+      <c r="H14" s="15"/>
+      <c r="I14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13" t="s">
+      <c r="J14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9276,19 +9296,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="F19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="G19" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -9296,19 +9316,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="19"/>
+      <c r="E20" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -9316,19 +9336,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="19"/>
+      <c r="E21" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -9336,19 +9356,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="19"/>
+      <c r="E22" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -9356,19 +9376,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="19"/>
+      <c r="E23" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="F23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -9376,19 +9396,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="19"/>
+      <c r="E24" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -9396,19 +9416,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="19"/>
+      <c r="E25" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -9416,19 +9436,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="19"/>
+      <c r="E26" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -9436,17 +9456,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="19"/>
+      <c r="E27" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="F27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -9454,19 +9474,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="19"/>
+      <c r="E28" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -9474,19 +9494,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="19"/>
+      <c r="E29" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="F29" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -9494,68 +9514,68 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="19"/>
+      <c r="E30" s="20" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="23"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="23"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="25"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/1st Year CSE, CSM, CS, DS, ECE Timetables.xlsx
+++ b/1st Year CSE, CSM, CS, DS, ECE Timetables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CSE 1A" sheetId="1" state="visible" r:id="rId2"/>
@@ -596,7 +596,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,18 +613,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -704,7 +692,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -757,7 +745,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -767,10 +755,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -801,7 +785,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -837,11 +821,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -851,6 +835,10 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -913,10 +901,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,7 +954,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -996,8 +980,8 @@
   </sheetPr>
   <dimension ref="B1:M231"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1223,10 +1207,10 @@
         <v>29</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="8"/>
@@ -1243,7 +1227,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="15"/>
@@ -1342,19 +1326,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -1362,19 +1346,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -1382,19 +1366,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -1402,19 +1386,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -1422,19 +1406,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="n">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -1442,19 +1426,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="n">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -1462,19 +1446,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="n">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -1482,19 +1466,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20" t="n">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -1502,17 +1486,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="n">
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -1520,19 +1504,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="n">
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -1540,19 +1524,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20" t="n">
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -1560,15 +1544,15 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20" t="n">
+      <c r="D30" s="18"/>
+      <c r="E30" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
@@ -1581,60 +1565,60 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="25" t="s">
+      <c r="B32" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28" t="s">
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="25" t="s">
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="30"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1892,8 +1876,8 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2116,7 +2100,7 @@
       <c r="F12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="14" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="15"/>
@@ -2247,19 +2231,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -2267,19 +2251,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -2287,19 +2271,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -2307,19 +2291,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -2327,19 +2311,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="n">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -2347,19 +2331,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="n">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -2367,19 +2351,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="n">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -2387,19 +2371,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20" t="n">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -2407,19 +2391,19 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="n">
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -2427,19 +2411,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="n">
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -2447,19 +2431,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20" t="n">
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -2467,24 +2451,24 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20" t="n">
+      <c r="D30" s="18"/>
+      <c r="E30" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -2493,44 +2477,44 @@
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="25"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
-      <c r="L32" s="25"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2786,8 +2770,8 @@
   </sheetPr>
   <dimension ref="B1:M226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2953,8 +2937,8 @@
         <v>21</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="16" t="s">
-        <v>33</v>
+      <c r="G10" s="32" t="s">
+        <v>18</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>20</v>
@@ -3000,12 +2984,12 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
       <c r="H12" s="15"/>
       <c r="I12" s="33" t="s">
         <v>30</v>
@@ -3058,17 +3042,17 @@
         <v>54</v>
       </c>
       <c r="E14" s="14"/>
-      <c r="F14" s="34" t="s">
-        <v>18</v>
+      <c r="F14" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="17"/>
+      <c r="J14" s="16"/>
       <c r="K14" s="14" t="s">
         <v>23</v>
       </c>
@@ -3136,19 +3120,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -3156,19 +3140,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -3176,19 +3160,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -3196,19 +3180,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -3216,19 +3200,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="n">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -3236,19 +3220,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="n">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -3256,19 +3240,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="n">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -3276,70 +3260,70 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="E26" s="20" t="n">
+      <c r="E26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D27" s="31"/>
-      <c r="E27" s="20" t="n">
+      <c r="D27" s="30"/>
+      <c r="E27" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="L27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="31"/>
-      <c r="E28" s="20" t="n">
+      <c r="D28" s="30"/>
+      <c r="E28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="L28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="20" t="n">
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="G29" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
       <c r="K29" s="7" t="s">
         <v>5</v>
       </c>
@@ -3347,25 +3331,25 @@
       <c r="M29" s="37"/>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D30" s="31"/>
-      <c r="E30" s="20" t="n">
+      <c r="D30" s="30"/>
+      <c r="E30" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="L30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3618,7 +3602,7 @@
   </sheetPr>
   <dimension ref="B1:M225"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -3812,7 +3796,7 @@
         <v>19</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="15"/>
@@ -3842,7 +3826,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="14"/>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="15"/>
@@ -3850,10 +3834,10 @@
         <v>32</v>
       </c>
       <c r="J12" s="14"/>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="8"/>
@@ -3863,20 +3847,20 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="15"/>
       <c r="I13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="14" t="s">
         <v>23</v>
       </c>
@@ -3894,7 +3878,7 @@
         <v>63</v>
       </c>
       <c r="F14" s="14"/>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H14" s="15"/>
@@ -3957,19 +3941,19 @@
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="18" t="s">
+      <c r="G18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
       <c r="K18" s="8"/>
       <c r="L18" s="0"/>
       <c r="M18" s="8"/>
@@ -3977,19 +3961,19 @@
     <row r="19" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20" t="n">
+      <c r="D19" s="18"/>
+      <c r="E19" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -3997,19 +3981,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F20" s="23" t="s">
+      <c r="F20" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -4017,19 +4001,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -4037,19 +4021,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -4057,19 +4041,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="n">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -4077,11 +4061,11 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="n">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="39" t="s">
@@ -4097,10 +4081,10 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="E25" s="20" t="n">
+      <c r="E25" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="39" t="s">
@@ -4114,75 +4098,75 @@
       <c r="M25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="20" t="n">
+      <c r="B26" s="24"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="25"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="24"/>
       <c r="L26" s="0"/>
-      <c r="M26" s="30"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D27" s="31"/>
-      <c r="E27" s="20" t="n">
+      <c r="D27" s="30"/>
+      <c r="E27" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="L27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="31"/>
-      <c r="E28" s="20" t="n">
+      <c r="D28" s="30"/>
+      <c r="E28" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="L28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D29" s="31"/>
-      <c r="E29" s="20" t="n">
+      <c r="D29" s="30"/>
+      <c r="E29" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="L29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
       <c r="L30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4432,8 +4416,8 @@
   </sheetPr>
   <dimension ref="B1:M232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4595,7 +4579,7 @@
       <c r="D10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -4633,7 +4617,7 @@
       <c r="F11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="15"/>
@@ -4657,7 +4641,7 @@
       <c r="F12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="15"/>
@@ -4694,7 +4678,7 @@
         <v>29</v>
       </c>
       <c r="K13" s="14"/>
-      <c r="L13" s="16" t="s">
+      <c r="L13" s="13" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="8"/>
@@ -4784,19 +4768,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -4804,19 +4788,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -4824,19 +4808,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -4844,19 +4828,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -4864,19 +4848,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="n">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -4884,19 +4868,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="n">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -4904,19 +4888,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="n">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -4924,19 +4908,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20" t="n">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -4944,17 +4928,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="n">
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -4962,19 +4946,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="n">
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -4982,19 +4966,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20" t="n">
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -5002,15 +4986,15 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20" t="n">
+      <c r="D30" s="18"/>
+      <c r="E30" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
@@ -5018,15 +5002,15 @@
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20" t="n">
+      <c r="D31" s="18"/>
+      <c r="E31" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="8"/>
       <c r="L31" s="0"/>
       <c r="M31" s="8"/>
@@ -5040,63 +5024,63 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C33" s="42"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
-      <c r="H33" s="28"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
-      <c r="M33" s="25"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="25" t="s">
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M35" s="30"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5352,8 +5336,8 @@
   </sheetPr>
   <dimension ref="B1:M232"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5520,7 +5504,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -5567,7 +5551,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="45" t="s">
@@ -5699,19 +5683,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -5719,19 +5703,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -5739,19 +5723,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -5759,19 +5743,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -5779,19 +5763,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="n">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -5799,19 +5783,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="n">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -5819,19 +5803,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="n">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -5839,19 +5823,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20" t="n">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -5859,17 +5843,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="n">
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -5877,19 +5861,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="n">
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -5897,19 +5881,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20" t="n">
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -5917,13 +5901,13 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
@@ -5931,13 +5915,13 @@
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
       <c r="K31" s="8"/>
       <c r="L31" s="0"/>
       <c r="M31" s="8"/>
@@ -5951,63 +5935,63 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C33" s="42"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
-      <c r="H33" s="28"/>
+      <c r="H33" s="27"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="44"/>
       <c r="L33" s="44"/>
-      <c r="M33" s="25"/>
+      <c r="M33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28" t="s">
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="25" t="s">
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="M35" s="30"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6266,8 +6250,8 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6433,7 +6417,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -6459,7 +6443,7 @@
       <c r="D11" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -6471,10 +6455,10 @@
         <v>84</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="16" t="s">
+      <c r="K11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="13" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="8"/>
@@ -6516,7 +6500,7 @@
       <c r="E13" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="14" t="s">
@@ -6550,10 +6534,10 @@
       <c r="I14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="14" t="s">
         <v>86</v>
       </c>
@@ -6620,19 +6604,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -6640,19 +6624,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -6660,19 +6644,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -6680,19 +6664,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -6700,19 +6684,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="n">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -6720,19 +6704,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="n">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -6740,19 +6724,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="n">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -6760,19 +6744,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20" t="n">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -6780,19 +6764,19 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="n">
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -6800,17 +6784,17 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="n">
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -6818,19 +6802,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20" t="n">
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -6838,26 +6822,26 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20" t="n">
+      <c r="D30" s="18"/>
+      <c r="E30" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -6866,44 +6850,44 @@
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="25"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
-      <c r="L32" s="25"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7159,7 +7143,7 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -7321,7 +7305,7 @@
       <c r="D10" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="14" t="s">
@@ -7351,7 +7335,7 @@
       <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F11" s="14" t="s">
@@ -7448,10 +7432,10 @@
       <c r="I14" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="17"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="14" t="s">
         <v>23</v>
       </c>
@@ -7518,19 +7502,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -7538,19 +7522,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -7558,19 +7542,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -7578,19 +7562,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -7598,19 +7582,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="n">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -7618,19 +7602,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="n">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -7638,19 +7622,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="n">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -7658,19 +7642,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20" t="n">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -7678,19 +7662,19 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="n">
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -7698,17 +7682,17 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="n">
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -7716,19 +7700,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20" t="n">
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -7736,26 +7720,26 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20" t="n">
+      <c r="D30" s="18"/>
+      <c r="E30" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -7764,44 +7748,44 @@
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="25"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
-      <c r="L32" s="25"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8055,8 +8039,8 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B8" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K10" activeCellId="0" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8223,7 +8207,7 @@
       <c r="F10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -8233,10 +8217,10 @@
         <v>100</v>
       </c>
       <c r="J10" s="14"/>
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="L10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="8"/>
@@ -8302,7 +8286,7 @@
         <v>110</v>
       </c>
       <c r="E13" s="14"/>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="14" t="s">
@@ -8329,7 +8313,7 @@
       <c r="D14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="13" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="14" t="s">
@@ -8406,19 +8390,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -8426,19 +8410,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -8446,19 +8430,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -8466,19 +8450,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -8486,19 +8470,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="n">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -8506,19 +8490,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="n">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -8526,19 +8510,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="n">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -8546,19 +8530,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20" t="n">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -8566,17 +8550,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="n">
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -8584,19 +8568,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="n">
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -8604,19 +8588,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20" t="n">
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -8624,22 +8608,22 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20" t="n">
+      <c r="D30" s="18"/>
+      <c r="E30" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -8648,44 +8632,44 @@
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="25"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
-      <c r="L32" s="25"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8941,7 +8925,7 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
@@ -9137,7 +9121,7 @@
       <c r="F11" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="15"/>
@@ -9165,7 +9149,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="49"/>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="15"/>
@@ -9178,7 +9162,7 @@
       <c r="K12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="13" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="8"/>
@@ -9195,7 +9179,7 @@
         <v>115</v>
       </c>
       <c r="F13" s="14"/>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H13" s="15"/>
@@ -9296,19 +9280,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -9316,19 +9300,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20" t="n">
+      <c r="D20" s="18"/>
+      <c r="E20" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -9336,19 +9320,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20" t="n">
+      <c r="D21" s="18"/>
+      <c r="E21" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="23" t="s">
+      <c r="F21" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -9356,19 +9340,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20" t="n">
+      <c r="D22" s="18"/>
+      <c r="E22" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -9376,19 +9360,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20" t="n">
+      <c r="D23" s="18"/>
+      <c r="E23" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -9396,19 +9380,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20" t="n">
+      <c r="D24" s="18"/>
+      <c r="E24" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -9416,19 +9400,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20" t="n">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -9436,19 +9420,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20" t="n">
+      <c r="D26" s="18"/>
+      <c r="E26" s="19" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -9456,17 +9440,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20" t="n">
+      <c r="D27" s="18"/>
+      <c r="E27" s="19" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -9474,19 +9458,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20" t="n">
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -9494,19 +9478,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20" t="n">
+      <c r="D29" s="18"/>
+      <c r="E29" s="19" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -9514,22 +9498,22 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="20" t="n">
+      <c r="D30" s="18"/>
+      <c r="E30" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="48"/>
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
@@ -9538,44 +9522,44 @@
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="25"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
-      <c r="G32" s="28"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
       <c r="J32" s="44"/>
       <c r="K32" s="44"/>
-      <c r="L32" s="25"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/1st Year CSE, CSM, CS, DS, ECE Timetables.xlsx
+++ b/1st Year CSE, CSM, CS, DS, ECE Timetables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CSE 1A" sheetId="1" state="visible" r:id="rId2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="126">
   <si>
     <t xml:space="preserve">Aurora's Technological &amp; Research Institute</t>
   </si>
@@ -211,9 +211,6 @@
   </si>
   <si>
     <t xml:space="preserve">PPS Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms. A. Anitha</t>
   </si>
   <si>
     <t xml:space="preserve">CLASS TIME TABLE - 2022-2023  I Semester</t>
@@ -692,7 +689,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -750,10 +747,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -785,7 +778,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -835,10 +828,6 @@
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -981,7 +970,7 @@
   <dimension ref="B1:M231"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1144,21 +1133,21 @@
         <v>18</v>
       </c>
       <c r="E10" s="13"/>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="8"/>
@@ -1168,21 +1157,21 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="8"/>
@@ -1196,17 +1185,17 @@
         <v>18</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
         <v>30</v>
       </c>
@@ -1220,25 +1209,25 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1246,23 +1235,23 @@
         <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1270,15 +1259,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1326,19 +1315,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -1346,19 +1335,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -1366,19 +1355,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -1386,19 +1375,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -1406,19 +1395,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -1426,19 +1415,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -1446,19 +1435,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -1466,19 +1455,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -1486,17 +1475,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -1504,19 +1493,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="23" t="s">
+      <c r="G28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -1524,19 +1513,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -1544,15 +1533,15 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
@@ -1565,60 +1554,60 @@
       <c r="M31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="27" t="s">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="24" t="s">
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="29"/>
+      <c r="M32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1876,8 +1865,8 @@
   </sheetPr>
   <dimension ref="B1:M230"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1932,7 +1921,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -1948,7 +1937,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1978,22 +1967,22 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2035,29 +2024,29 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="D10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2065,24 +2054,24 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14" t="s">
+      <c r="D11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="M11" s="8"/>
     </row>
@@ -2091,27 +2080,27 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="E12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14" t="s">
+      <c r="J12" s="31"/>
+      <c r="K12" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2119,27 +2108,25 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14" t="s">
+      <c r="D13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="K13" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" s="31"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2147,25 +2134,25 @@
         <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="8"/>
@@ -2175,15 +2162,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2231,19 +2218,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -2251,19 +2238,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="F20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -2271,19 +2258,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="F21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -2291,19 +2278,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="21" t="s">
+      <c r="F22" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -2311,19 +2298,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -2331,19 +2318,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="F24" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -2351,19 +2338,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="F25" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -2371,19 +2358,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="F26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -2391,19 +2378,19 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="F27" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -2411,19 +2398,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="F28" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -2431,19 +2418,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -2451,70 +2438,70 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="24"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2712,7 +2699,7 @@
     <row r="229" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="230" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B5:M5"/>
@@ -2731,6 +2718,7 @@
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="E13:G13"/>
+    <mergeCell ref="K13:L13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="J14:K14"/>
@@ -2770,7 +2758,7 @@
   </sheetPr>
   <dimension ref="B1:M226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -2827,7 +2815,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -2843,7 +2831,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2873,7 +2861,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -2930,25 +2918,25 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="13"/>
+      <c r="G10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2956,25 +2944,25 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="8"/>
@@ -2984,23 +2972,23 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="33" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="33" t="s">
+      <c r="J12" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="8"/>
@@ -3010,27 +2998,27 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="14"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3038,25 +3026,25 @@
         <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="32" t="s">
+      <c r="D14" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="J14" s="16"/>
-      <c r="K14" s="14" t="s">
+      <c r="J14" s="15"/>
+      <c r="K14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3064,15 +3052,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3120,19 +3108,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -3140,19 +3128,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -3160,19 +3148,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="G21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -3180,19 +3168,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -3200,19 +3188,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -3220,19 +3208,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -3240,19 +3228,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -3260,96 +3248,96 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="E26" s="19" t="n">
+      <c r="E26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
+      <c r="G26" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D27" s="30"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="29"/>
+      <c r="E27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="L27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="30"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="29"/>
+      <c r="E28" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="L28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="19" t="n">
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
+      <c r="G29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="7" t="s">
         <v>5</v>
       </c>
       <c r="L29" s="0"/>
-      <c r="M29" s="37"/>
+      <c r="M29" s="35"/>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D30" s="30"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="29"/>
+      <c r="E30" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="L30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3603,7 +3591,7 @@
   <dimension ref="B1:M225"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K12" activeCellId="0" sqref="K12"/>
+      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3660,7 +3648,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3676,7 +3664,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -3706,14 +3694,14 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -3763,25 +3751,25 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3789,28 +3777,28 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="14" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="38" t="s">
+      <c r="K11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>18</v>
+      <c r="L11" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="M11" s="8"/>
     </row>
@@ -3819,21 +3807,21 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="13" t="s">
         <v>30</v>
       </c>
@@ -3847,21 +3835,21 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14" t="s">
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="14" t="s">
+      <c r="K13" s="15"/>
+      <c r="L13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M13" s="8"/>
@@ -3871,25 +3859,25 @@
         <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="14"/>
+      <c r="E14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="13"/>
       <c r="G14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="M14" s="8"/>
@@ -3899,15 +3887,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3941,19 +3929,19 @@
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
       <c r="K18" s="8"/>
       <c r="L18" s="0"/>
       <c r="M18" s="8"/>
@@ -3961,19 +3949,19 @@
     <row r="19" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19" t="n">
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="G19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -3981,19 +3969,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -4001,19 +3989,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="G21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -4021,19 +4009,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -4041,19 +4029,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -4061,19 +4049,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="41"/>
+      <c r="G24" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -4081,92 +4069,92 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="E25" s="19" t="n">
+      <c r="E25" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="41"/>
+      <c r="G25" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="39"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="24"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="19" t="n">
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="24"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="0"/>
-      <c r="M26" s="29"/>
+      <c r="M26" s="28"/>
     </row>
     <row r="27" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D27" s="30"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="29"/>
+      <c r="E27" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="L27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D28" s="30"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="29"/>
+      <c r="E28" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="L28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D29" s="30"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="29"/>
+      <c r="E29" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="L29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
       <c r="L30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4473,7 +4461,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4489,7 +4477,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -4519,7 +4507,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -4576,29 +4564,29 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="M10" s="8"/>
@@ -4608,10 +4596,10 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="F11" s="13" t="s">
@@ -4620,13 +4608,13 @@
       <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4634,22 +4622,22 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="14"/>
+      <c r="E12" s="13"/>
       <c r="F12" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14" t="s">
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="13" t="s">
@@ -4662,22 +4650,22 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14" t="s">
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="13"/>
       <c r="L13" s="13" t="s">
         <v>30</v>
       </c>
@@ -4688,21 +4676,21 @@
         <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="14" t="s">
+      <c r="L14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="8"/>
@@ -4712,15 +4700,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4768,19 +4756,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -4788,19 +4776,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -4808,19 +4796,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="G21" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -4828,19 +4816,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -4848,19 +4836,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -4868,19 +4856,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -4888,19 +4876,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -4908,19 +4896,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -4928,17 +4916,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -4946,19 +4934,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -4966,19 +4954,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -4986,15 +4974,15 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
@@ -5002,15 +4990,15 @@
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19" t="n">
+      <c r="D31" s="17"/>
+      <c r="E31" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="8"/>
       <c r="L31" s="0"/>
       <c r="M31" s="8"/>
@@ -5023,64 +5011,64 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="42"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="24"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="24" t="s">
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M35" s="29"/>
+      <c r="M35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -5337,7 +5325,7 @@
   <dimension ref="B1:M232"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5394,7 +5382,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5410,7 +5398,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5440,7 +5428,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -5497,29 +5485,29 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L10" s="14"/>
+      <c r="K10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L10" s="13"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5527,21 +5515,21 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="45" t="s">
+      <c r="D11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="45" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="43" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="8"/>
@@ -5554,24 +5542,24 @@
       <c r="D12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="14" t="s">
+      <c r="E12" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="13"/>
       <c r="M12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5579,23 +5567,23 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="45" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5603,23 +5591,23 @@
         <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="14"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5627,15 +5615,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5683,19 +5671,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -5703,19 +5691,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -5723,19 +5711,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="G21" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -5743,19 +5731,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -5763,19 +5751,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -5783,19 +5771,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -5803,19 +5791,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -5823,19 +5811,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -5843,17 +5831,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -5861,19 +5849,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
+      <c r="G28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -5881,19 +5869,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -5901,13 +5889,13 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
@@ -5915,13 +5903,13 @@
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="8"/>
       <c r="L31" s="0"/>
       <c r="M31" s="8"/>
@@ -5934,64 +5922,64 @@
       <c r="M32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C33" s="42"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="24"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="27" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="24" t="s">
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="M35" s="29"/>
+      <c r="M35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -6307,7 +6295,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -6323,7 +6311,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -6353,22 +6341,22 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6410,27 +6398,27 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J10" s="14" t="s">
+      <c r="I10" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M10" s="8"/>
@@ -6440,21 +6428,21 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
-        <v>86</v>
+      <c r="D11" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="14"/>
+      <c r="F11" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="13"/>
       <c r="K11" s="13" t="s">
         <v>34</v>
       </c>
@@ -6468,23 +6456,23 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="38" t="s">
+      <c r="D12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="14" t="s">
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="8"/>
@@ -6494,26 +6482,26 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>84</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
-        <v>86</v>
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="M13" s="8"/>
     </row>
@@ -6522,24 +6510,24 @@
         <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
+      <c r="D14" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="M14" s="8"/>
     </row>
@@ -6548,15 +6536,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6604,19 +6592,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -6624,19 +6612,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="F20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -6644,19 +6632,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -6664,19 +6652,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -6684,19 +6672,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="F23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -6704,19 +6692,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="F24" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -6724,19 +6712,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="21" t="s">
+      <c r="F25" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -6744,19 +6732,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="F26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -6764,19 +6752,19 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -6784,17 +6772,17 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -6802,19 +6790,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -6822,72 +6810,72 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="G30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="24"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -7199,7 +7187,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -7215,7 +7203,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -7245,22 +7233,22 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="E8" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7302,29 +7290,29 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="14" t="s">
-        <v>84</v>
+      <c r="D10" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="G10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
+      <c r="J10" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
       <c r="M10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7332,28 +7320,28 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="47"/>
+      <c r="L11" s="13" t="s">
         <v>85</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>100</v>
-      </c>
-      <c r="K11" s="49"/>
-      <c r="L11" s="14" t="s">
-        <v>86</v>
       </c>
       <c r="M11" s="8"/>
     </row>
@@ -7362,25 +7350,25 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14" t="s">
+      <c r="E12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="50" t="s">
+      <c r="K12" s="13"/>
+      <c r="L12" s="48" t="s">
         <v>23</v>
       </c>
       <c r="M12" s="8"/>
@@ -7390,25 +7378,25 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="38" t="s">
+      <c r="D13" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="M13" s="8"/>
@@ -7418,25 +7406,25 @@
         <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="J14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="14" t="s">
+      <c r="K14" s="15"/>
+      <c r="L14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="8"/>
@@ -7446,15 +7434,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7502,19 +7490,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -7522,19 +7510,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="F20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -7542,19 +7530,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="F21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -7562,19 +7550,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -7582,19 +7570,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="F23" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -7602,19 +7590,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="F24" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -7622,19 +7610,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="F25" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -7642,19 +7630,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="F26" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -7662,19 +7650,19 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -7682,17 +7670,17 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -7700,19 +7688,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -7720,72 +7708,72 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G30" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="G30" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="24"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8095,7 +8083,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -8111,7 +8099,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -8141,22 +8129,22 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="46" t="s">
-        <v>108</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="E8" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8198,25 +8186,25 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" s="14"/>
+      <c r="I10" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="13"/>
       <c r="K10" s="13" t="s">
         <v>30</v>
       </c>
@@ -8230,25 +8218,25 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
+      <c r="F11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14" t="s">
+      <c r="J11" s="13"/>
+      <c r="K11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8256,23 +8244,23 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14" t="s">
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="13" t="s">
         <v>27</v>
       </c>
       <c r="M12" s="8"/>
@@ -8282,25 +8270,25 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="14"/>
+      <c r="D13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="13"/>
       <c r="F13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="M13" s="8"/>
@@ -8310,23 +8298,23 @@
         <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14" t="s">
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8334,15 +8322,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8390,19 +8378,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -8410,19 +8398,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -8430,19 +8418,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -8450,19 +8438,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -8470,19 +8458,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -8490,19 +8478,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -8510,19 +8498,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="G25" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -8530,19 +8518,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -8550,17 +8538,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -8568,19 +8556,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -8588,19 +8576,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -8608,68 +8596,68 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="24"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -8983,7 +8971,7 @@
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -8999,7 +8987,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -9029,22 +9017,22 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
       <c r="M8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9086,23 +9074,23 @@
         <v>17</v>
       </c>
       <c r="C10" s="11"/>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="38" t="s">
+      <c r="I10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14" t="s">
+      <c r="K10" s="13"/>
+      <c r="L10" s="13" t="s">
         <v>27</v>
       </c>
       <c r="M10" s="8"/>
@@ -9112,27 +9100,27 @@
         <v>24</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14" t="s">
+      <c r="H11" s="14"/>
+      <c r="I11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14" t="s">
+      <c r="K11" s="13"/>
+      <c r="L11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M11" s="8"/>
@@ -9142,24 +9130,24 @@
         <v>26</v>
       </c>
       <c r="C12" s="11"/>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="49"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="49" t="s">
+      <c r="H12" s="14"/>
+      <c r="I12" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K12" s="14" t="s">
+      <c r="J12" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="13" t="s">
         <v>21</v>
       </c>
       <c r="L12" s="13" t="s">
@@ -9172,23 +9160,23 @@
         <v>31</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="14"/>
+      <c r="E13" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="13"/>
       <c r="G13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="14"/>
+      <c r="I13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9196,25 +9184,25 @@
         <v>35</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
+      <c r="E14" s="13"/>
+      <c r="F14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14" t="s">
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14" t="s">
+      <c r="K14" s="13"/>
+      <c r="L14" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M14" s="8"/>
@@ -9224,15 +9212,15 @@
         <v>36</v>
       </c>
       <c r="C15" s="11"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
       <c r="M15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9280,19 +9268,19 @@
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
       <c r="K19" s="8"/>
       <c r="L19" s="0"/>
       <c r="M19" s="8"/>
@@ -9300,19 +9288,19 @@
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19" t="n">
+      <c r="D20" s="17"/>
+      <c r="E20" s="18" t="n">
         <v>1</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="G20" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
       <c r="K20" s="8"/>
       <c r="L20" s="0"/>
       <c r="M20" s="8"/>
@@ -9320,19 +9308,19 @@
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="19" t="n">
+      <c r="D21" s="17"/>
+      <c r="E21" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
+      <c r="G21" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
       <c r="K21" s="8"/>
       <c r="L21" s="0"/>
       <c r="M21" s="8"/>
@@ -9340,19 +9328,19 @@
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="19" t="n">
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
+      <c r="G22" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="8"/>
       <c r="L22" s="0"/>
       <c r="M22" s="8"/>
@@ -9360,19 +9348,19 @@
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="19" t="n">
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="n">
         <v>4</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="G23" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="8"/>
       <c r="L23" s="0"/>
       <c r="M23" s="8"/>
@@ -9380,19 +9368,19 @@
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19" t="n">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="G24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="8"/>
       <c r="L24" s="0"/>
       <c r="M24" s="8"/>
@@ -9400,19 +9388,19 @@
     <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19" t="n">
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="n">
         <v>6</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="8"/>
       <c r="L25" s="0"/>
       <c r="M25" s="8"/>
@@ -9420,19 +9408,19 @@
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19" t="n">
+      <c r="D26" s="17"/>
+      <c r="E26" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
+      <c r="G26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="8"/>
       <c r="L26" s="0"/>
       <c r="M26" s="8"/>
@@ -9440,17 +9428,17 @@
     <row r="27" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19" t="n">
+      <c r="D27" s="17"/>
+      <c r="E27" s="18" t="n">
         <v>8</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="8"/>
       <c r="L27" s="0"/>
       <c r="M27" s="8"/>
@@ -9458,19 +9446,19 @@
     <row r="28" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19" t="n">
+      <c r="D28" s="17"/>
+      <c r="E28" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="G28" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
+      <c r="G28" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="8"/>
       <c r="L28" s="0"/>
       <c r="M28" s="8"/>
@@ -9478,19 +9466,19 @@
     <row r="29" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19" t="n">
+      <c r="D29" s="17"/>
+      <c r="E29" s="18" t="n">
         <v>10</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
+      <c r="G29" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="8"/>
       <c r="L29" s="0"/>
       <c r="M29" s="8"/>
@@ -9498,68 +9486,68 @@
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19" t="n">
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="n">
         <v>11</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="8"/>
       <c r="L30" s="0"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="46"/>
       <c r="L31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="24"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
